--- a/Excel Files/withStyle.xlsx
+++ b/Excel Files/withStyle.xlsx
@@ -23,10 +23,10 @@
     <t>Please do not use Comic Sans</t>
   </si>
   <si>
-    <t>This column is 76 pixels wide</t>
-  </si>
-  <si>
-    <t>This row is 46 pixels high</t>
+    <t>This column is 94 pixels wide</t>
+  </si>
+  <si>
+    <t>This row is 82 pixels high</t>
   </si>
   <si>
     <t>All these cells are merged</t>
@@ -140,7 +140,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="3"/>
+  <style val="15"/>
   <chart>
     <title>
       <tx>
@@ -593,7 +593,7 @@
   <cols>
     <col customWidth="1" max="1" min="1" width="20"/>
     <col customWidth="1" max="2" min="2" width="20"/>
-    <col customWidth="1" max="8" min="8" width="76"/>
+    <col customWidth="1" max="8" min="8" width="94"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="G1" t="n">
-        <v>4084</v>
+        <v>5896</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -618,22 +618,22 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2324</v>
+        <v>8006</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="G3" t="n">
-        <v>1875</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="G4" t="n">
-        <v>6518</v>
+        <v>9718</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="G5" t="n">
-        <v>9119</v>
+        <v>4769</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -642,7 +642,7 @@
         <v/>
       </c>
     </row>
-    <row customHeight="1" ht="46" r="10" spans="1:13">
+    <row customHeight="1" ht="82" r="10" spans="1:13">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -660,10 +660,10 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="n">
-        <v>760</v>
+        <v>709</v>
       </c>
       <c r="B15" t="n">
-        <v>137</v>
+        <v>307</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
@@ -671,10 +671,10 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="n">
-        <v>238</v>
+        <v>898</v>
       </c>
       <c r="B16" t="n">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -682,10 +682,10 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="n">
-        <v>289</v>
+        <v>354</v>
       </c>
       <c r="B17" t="n">
-        <v>599</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -693,10 +693,10 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="n">
-        <v>175</v>
+        <v>35</v>
       </c>
       <c r="B18" t="n">
-        <v>801</v>
+        <v>198</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
@@ -704,10 +704,10 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="n">
-        <v>305</v>
+        <v>714</v>
       </c>
       <c r="B19" t="n">
-        <v>566</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -715,10 +715,10 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="n">
-        <v>983</v>
+        <v>902</v>
       </c>
       <c r="B20" t="n">
-        <v>150</v>
+        <v>866</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -726,10 +726,10 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>735</v>
       </c>
       <c r="B21" t="n">
-        <v>747</v>
+        <v>610</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
@@ -737,10 +737,10 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="n">
-        <v>90</v>
+        <v>676</v>
       </c>
       <c r="B22" t="n">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
@@ -748,10 +748,10 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="n">
-        <v>101</v>
+        <v>254</v>
       </c>
       <c r="B23" t="n">
-        <v>666</v>
+        <v>855</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
@@ -759,10 +759,10 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="n">
-        <v>542</v>
+        <v>451</v>
       </c>
       <c r="B24" t="n">
-        <v>26</v>
+        <v>982</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
@@ -770,10 +770,10 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="n">
-        <v>412</v>
+        <v>3</v>
       </c>
       <c r="B25" t="n">
-        <v>306</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
         <v>19</v>
